--- a/data/trans_camb/iP13_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 8,3</t>
+          <t>-5,65; 7,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 2,14</t>
+          <t>-9,67; 1,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 14,21</t>
+          <t>-3,42; 13,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 7,06</t>
+          <t>-4,1; 7,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 4,37</t>
+          <t>-6,35; 4,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 13,4</t>
+          <t>-2,18; 13,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 5,65</t>
+          <t>-3,18; 5,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 1,38</t>
+          <t>-6,62; 1,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 10,49</t>
+          <t>-0,47; 11,46</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 196,54</t>
+          <t>-59,82; 167,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 110,87</t>
+          <t>-100,0; 81,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,88; 356,33</t>
+          <t>-44,45; 357,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,31; 280,57</t>
+          <t>-57,58; 258,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 212,23</t>
+          <t>-100,0; 232,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 518,67</t>
+          <t>-33,94; 547,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,93; 138,4</t>
+          <t>-40,24; 130,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-82,22; 47,46</t>
+          <t>-83,71; 38,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 269,83</t>
+          <t>-9,87; 244,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,9</t>
+          <t>-0,06; 4,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,63</t>
+          <t>-1,86; 2,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,89</t>
+          <t>-0,94; 3,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 2,73</t>
+          <t>-2,16; 2,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 2,29</t>
+          <t>-2,41; 2,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 2,49</t>
+          <t>-2,15; 2,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 3,16</t>
+          <t>-0,28; 3,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,95</t>
+          <t>-1,42; 1,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,28</t>
+          <t>-0,91; 2,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 137,38</t>
+          <t>-2,83; 136,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,59; 76,14</t>
+          <t>-35,66; 71,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 106,17</t>
+          <t>-19,67; 114,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 68,52</t>
+          <t>-35,01; 71,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,02; 59,96</t>
+          <t>-38,49; 61,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 67,79</t>
+          <t>-35,12; 63,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 79,3</t>
+          <t>-5,11; 81,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 49,24</t>
+          <t>-25,79; 44,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 56,11</t>
+          <t>-16,71; 66,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 1,43</t>
+          <t>-5,58; 1,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 1,52</t>
+          <t>-5,86; 1,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,34</t>
+          <t>-3,08; 5,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,48</t>
+          <t>-0,89; 5,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,39</t>
+          <t>0,35; 7,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,43; 9,06</t>
+          <t>0,41; 8,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,64</t>
+          <t>-2,19; 2,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,5</t>
+          <t>-1,52; 3,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,77</t>
+          <t>0,04; 6,2</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-81,04; 44,87</t>
+          <t>-78,97; 53,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-73,99; 52,11</t>
+          <t>-75,14; 61,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,53; 145,97</t>
+          <t>-44,56; 167,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 433,93</t>
+          <t>-33,02; 364,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,91; 565,11</t>
+          <t>-5,2; 469,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 510,34</t>
+          <t>-4,8; 542,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,99; 95,91</t>
+          <t>-42,25; 102,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 120,71</t>
+          <t>-31,09; 116,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 193,2</t>
+          <t>-5,55; 208,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,1</t>
+          <t>-0,87; 3,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 1,43</t>
+          <t>-2,45; 1,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 3,71</t>
+          <t>-0,66; 3,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,94</t>
+          <t>-0,79; 2,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 2,61</t>
+          <t>-0,99; 2,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,58</t>
+          <t>-0,68; 3,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,55</t>
+          <t>-0,3; 2,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,37</t>
+          <t>-1,09; 1,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,94</t>
+          <t>0,05; 2,82</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 75,69</t>
+          <t>-15,51; 76,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 33,61</t>
+          <t>-40,44; 27,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 91,84</t>
+          <t>-12,31; 86,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 82,29</t>
+          <t>-15,44; 80,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 70,97</t>
+          <t>-18,85; 79,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 101,38</t>
+          <t>-14,15; 87,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 60,98</t>
+          <t>-4,6; 59,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 32,82</t>
+          <t>-20,54; 33,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,54; 71,86</t>
+          <t>0,85; 69,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP13_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP13_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,17; 6,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; 4,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 12,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 7,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,06; 2,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 13,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 5,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 1,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 10,96</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,54%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,2; 258,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,1; 221,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,48; 464,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,28; 222,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,97; 107,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,51; 321,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,81; 137,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,86; 53,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,58; 249,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 7,3</t>
+          <t>-2,05; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 1,79</t>
+          <t>-2,54; 2,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 13,61</t>
+          <t>-2,43; 2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 7,13</t>
+          <t>-0,17; 4,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 4,53</t>
+          <t>-1,75; 2,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 13,35</t>
+          <t>-1,08; 3,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 5,68</t>
+          <t>-0,35; 3,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 1,24</t>
+          <t>-1,38; 1,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 11,46</t>
+          <t>-1,07; 2,29</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-53,18%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>-2,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>51,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,52%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,51%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-44,31%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>75,89%</t>
+          <t>12,54%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,82; 167,3</t>
+          <t>-34,3; 67,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 81,82</t>
+          <t>-40,04; 64,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,45; 357,47</t>
+          <t>-39,78; 59,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,58; 258,54</t>
+          <t>-3,67; 142,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 232,38</t>
+          <t>-32,78; 84,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 547,0</t>
+          <t>-18,32; 107,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,24; 130,95</t>
+          <t>-6,45; 81,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,71; 38,62</t>
+          <t>-25,08; 47,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 244,68</t>
+          <t>-19,75; 58,7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1069,42 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>2,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,78</t>
+          <t>-0,66; 6,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,61</t>
+          <t>0,62; 7,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,84</t>
+          <t>0,29; 8,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,75</t>
+          <t>-5,95; 1,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 2,39</t>
+          <t>-5,58; 1,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,35</t>
+          <t>-3,04; 5,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,13</t>
+          <t>-2,27; 2,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,75</t>
+          <t>-1,58; 3,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,6</t>
+          <t>-0,16; 5,6</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>134,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>142,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>-41,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>-33,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>62,34%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 136,12</t>
+          <t>-31,14; 386,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,66; 71,33</t>
+          <t>10,85; 541,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 114,36</t>
+          <t>2,75; 522,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,01; 71,39</t>
+          <t>-78,69; 59,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,49; 61,97</t>
+          <t>-71,64; 57,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,12; 63,23</t>
+          <t>-43,12; 170,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 81,14</t>
+          <t>-44,01; 99,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 44,03</t>
+          <t>-33,84; 110,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 66,4</t>
+          <t>-3,65; 194,25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>1,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,64</t>
+          <t>-0,95; 3,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 1,83</t>
+          <t>-1,0; 2,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,97</t>
+          <t>-0,88; 3,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,83</t>
+          <t>-0,72; 3,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,59</t>
+          <t>-2,56; 1,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 8,53</t>
+          <t>-0,56; 3,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,87</t>
+          <t>-0,25; 2,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,39</t>
+          <t>-1,23; 1,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 6,2</t>
+          <t>-0,03; 2,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-41,13%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-33,69%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>134,59%</t>
+          <t>-11,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>146,33%</t>
+          <t>27,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>65,54%</t>
+          <t>27,02%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-78,97; 53,87</t>
+          <t>-17,93; 85,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,14; 61,01</t>
+          <t>-18,98; 69,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,56; 167,1</t>
+          <t>-18,21; 86,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,02; 364,59</t>
+          <t>-12,34; 70,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 469,83</t>
+          <t>-41,03; 29,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 542,58</t>
+          <t>-10,46; 81,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 102,56</t>
+          <t>-4,61; 59,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,09; 116,68</t>
+          <t>-22,47; 35,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 208,21</t>
+          <t>-0,91; 64,1</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 3,06</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-2,45; 1,1</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 3,52</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-0,79; 2,96</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 2,76</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 3,41</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 2,36</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 1,36</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 2,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>22,88%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-11,68%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>29,73%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>21,79%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>17,84%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>30,03%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>22,36%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>30,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-15,51; 76,68</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-40,44; 27,34</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-12,31; 86,46</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-15,44; 80,85</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-18,85; 79,84</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-14,15; 87,11</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 59,44</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-20,54; 33,94</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 69,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
